--- a/data/trans_orig/P70B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87E772BA-B8D8-411A-AD2F-511DCA987347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07986613-8A35-48F6-BF0D-BB0ADFCC509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB1207C3-54E1-4E6E-8406-7289A8BE6E3A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C625EBE3-2C29-4CC9-AD30-0288A3E3857C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población que concilia su vida profesional y laboral en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>90,83%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>82,55%</t>
   </si>
   <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>9,17%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>82,48%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
   </si>
   <si>
     <t>84,02%</t>
   </si>
   <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>83,14%</t>
   </si>
   <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,103 @@
     <t>92,14%</t>
   </si>
   <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>87,74%</t>
   </si>
   <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>12,26%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>85,54%</t>
   </si>
   <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A80F78-F2D2-43E0-84CF-970259E9EB80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81AF2A5-DDF6-4DA6-AA3C-F83244454C45}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1330,13 +1324,13 @@
         <v>2844333</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,13 +1345,13 @@
         <v>264712</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>279</v>
@@ -1366,13 +1360,13 @@
         <v>223855</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>510</v>
@@ -1381,13 +1375,13 @@
         <v>488567</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07986613-8A35-48F6-BF0D-BB0ADFCC509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1553DDB-E02C-44E8-BCB1-97B56F7D8160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C625EBE3-2C29-4CC9-AD30-0288A3E3857C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9991A0A4-5042-4817-97C3-749DF694839D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81AF2A5-DDF6-4DA6-AA3C-F83244454C45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC84FF3D-3159-41D3-9713-7EAC9EFA3114}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1553DDB-E02C-44E8-BCB1-97B56F7D8160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA6FAE99-DC11-45F5-BC6C-168C9E8EAE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9991A0A4-5042-4817-97C3-749DF694839D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{681B7DDD-406C-46B2-8B58-CCA0F8BDEE64}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población que concilia su vida profesional y laboral en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>90,83%</t>
   </si>
   <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>82,55%</t>
   </si>
   <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>9,17%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,160 +137,166 @@
     <t>82,48%</t>
   </si>
   <si>
-    <t>79,65%</t>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>85,34%</t>
   </si>
   <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC84FF3D-3159-41D3-9713-7EAC9EFA3114}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E16D35-2C2E-4EAE-ADFA-8E63ABE84634}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1324,13 +1330,13 @@
         <v>2844333</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,13 +1351,13 @@
         <v>264712</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>279</v>
@@ -1360,13 +1366,13 @@
         <v>223855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>510</v>
@@ -1375,13 +1381,13 @@
         <v>488567</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70B_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA6FAE99-DC11-45F5-BC6C-168C9E8EAE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B2E98C6-4AA4-4A83-BFAA-32CC688DB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{681B7DDD-406C-46B2-8B58-CCA0F8BDEE64}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D86FCCCB-3B0C-42A5-B56F-25708C7F0BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población que concilia su vida profesional y laboral en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,163 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
   </si>
   <si>
     <t>87,68%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>12,32%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E16D35-2C2E-4EAE-ADFA-8E63ABE84634}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A9B0E9-90D6-412E-B2D9-4F0942E94C8D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +826,7 @@
         <v>129</v>
       </c>
       <c r="D4" s="7">
-        <v>121894</v>
+        <v>119242</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +841,7 @@
         <v>108</v>
       </c>
       <c r="I4" s="7">
-        <v>73740</v>
+        <v>67702</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +856,7 @@
         <v>237</v>
       </c>
       <c r="N4" s="7">
-        <v>195633</v>
+        <v>186944</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>12304</v>
+        <v>12861</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>15586</v>
+        <v>12907</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +907,7 @@
         <v>27</v>
       </c>
       <c r="N5" s="7">
-        <v>27890</v>
+        <v>25768</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +928,7 @@
         <v>142</v>
       </c>
       <c r="D6" s="7">
-        <v>134198</v>
+        <v>132103</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +943,7 @@
         <v>122</v>
       </c>
       <c r="I6" s="7">
-        <v>89326</v>
+        <v>80609</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +958,7 @@
         <v>264</v>
       </c>
       <c r="N6" s="7">
-        <v>223523</v>
+        <v>212712</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +981,7 @@
         <v>903</v>
       </c>
       <c r="D7" s="7">
-        <v>1016525</v>
+        <v>1169179</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +996,7 @@
         <v>1068</v>
       </c>
       <c r="I7" s="7">
-        <v>789847</v>
+        <v>804502</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,16 +1011,16 @@
         <v>1971</v>
       </c>
       <c r="N7" s="7">
-        <v>1806372</v>
+        <v>1973681</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1038,46 +1032,46 @@
         <v>188</v>
       </c>
       <c r="D8" s="7">
-        <v>215956</v>
+        <v>209773</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>193</v>
       </c>
       <c r="I8" s="7">
-        <v>150272</v>
+        <v>137963</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>381</v>
       </c>
       <c r="N8" s="7">
-        <v>366228</v>
+        <v>347736</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1089,7 +1083,7 @@
         <v>1091</v>
       </c>
       <c r="D9" s="7">
-        <v>1232481</v>
+        <v>1378952</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1098,7 @@
         <v>1261</v>
       </c>
       <c r="I9" s="7">
-        <v>940119</v>
+        <v>942465</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1113,7 @@
         <v>2352</v>
       </c>
       <c r="N9" s="7">
-        <v>2172600</v>
+        <v>2321417</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1133,7 +1127,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1142,46 +1136,46 @@
         <v>405</v>
       </c>
       <c r="D10" s="7">
-        <v>427423</v>
+        <v>413127</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>579</v>
       </c>
       <c r="I10" s="7">
-        <v>414905</v>
+        <v>385465</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>984</v>
       </c>
       <c r="N10" s="7">
-        <v>842328</v>
+        <v>798593</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1193,46 +1187,46 @@
         <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>36453</v>
+        <v>35314</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>72</v>
       </c>
       <c r="I11" s="7">
-        <v>57996</v>
+        <v>53256</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
       </c>
       <c r="N11" s="7">
-        <v>94449</v>
+        <v>88569</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1244,7 +1238,7 @@
         <v>435</v>
       </c>
       <c r="D12" s="7">
-        <v>463876</v>
+        <v>448441</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1253,7 @@
         <v>651</v>
       </c>
       <c r="I12" s="7">
-        <v>472901</v>
+        <v>438721</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1268,7 @@
         <v>1086</v>
       </c>
       <c r="N12" s="7">
-        <v>936777</v>
+        <v>887162</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,46 +1291,46 @@
         <v>1437</v>
       </c>
       <c r="D13" s="7">
-        <v>1565842</v>
+        <v>1701548</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1755</v>
       </c>
       <c r="I13" s="7">
-        <v>1278491</v>
+        <v>1257670</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>3192</v>
       </c>
       <c r="N13" s="7">
-        <v>2844333</v>
+        <v>2959218</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,46 +1342,46 @@
         <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>264712</v>
+        <v>257948</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>279</v>
       </c>
       <c r="I14" s="7">
-        <v>223855</v>
+        <v>204125</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>510</v>
       </c>
       <c r="N14" s="7">
-        <v>488567</v>
+        <v>462073</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1399,7 +1393,7 @@
         <v>1668</v>
       </c>
       <c r="D15" s="7">
-        <v>1830554</v>
+        <v>1959496</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1408,7 @@
         <v>2034</v>
       </c>
       <c r="I15" s="7">
-        <v>1502346</v>
+        <v>1461795</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1423,7 @@
         <v>3702</v>
       </c>
       <c r="N15" s="7">
-        <v>3332900</v>
+        <v>3421291</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
